--- a/Kerd.xlsx
+++ b/Kerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\OneDrive\Belgeler\GitHub\Kerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE997A-4B1C-4D2F-8D7B-82B2A2845DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBCA87-6260-4D45-9787-E46ADE9F4E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
+    <workbookView xWindow="-4125" yWindow="2415" windowWidth="9045" windowHeight="11160" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Piece Setup" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,8 +84,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA14A0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -109,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +206,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA14A0F"/>
       <color rgb="FF90EB89"/>
       <color rgb="FF1ACC51"/>
       <color rgb="FF88D0F0"/>
@@ -145,7 +215,6 @@
       <color rgb="FFF4B184"/>
       <color rgb="FFF3AA79"/>
       <color rgb="FFF19E65"/>
-      <color rgb="FFA14A0F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -163,15 +232,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>153653</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>693965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -233,16 +302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>649169</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>156055</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>669152</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>713946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,7 +326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="993322" y="1020536"/>
+          <a:off x="1592132" y="1619344"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -303,15 +372,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>730811</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>721179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -327,7 +396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1932214" y="1047750"/>
+          <a:off x="2518368" y="1626577"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -373,16 +442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200133</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>713230</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>721179</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>199824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>693247</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>730503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -397,7 +466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771883" y="1047750"/>
+          <a:off x="3345381" y="1635901"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -443,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>193639</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>717204</xdr:colOff>
+      <xdr:rowOff>181082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>706737</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>680358</xdr:rowOff>
+      <xdr:rowOff>711761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -467,8 +536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1918607" y="8722179"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="5952601" y="8533774"/>
+          <a:ext cx="513098" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -514,15 +583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>186526</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>225157</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>699623</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>680358</xdr:rowOff>
+      <xdr:colOff>738254</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>651050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -537,7 +606,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758276" y="8722179"/>
+          <a:off x="2525811" y="9337640"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -583,15 +652,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>676383</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>721179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -607,7 +676,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3592286" y="1047750"/>
+          <a:off x="4193094" y="1626577"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -654,22 +723,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145707</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:colOff>193641</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>237604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>658804</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>748393</xdr:rowOff>
+      <xdr:colOff>706738</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>768283</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Oval 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C52910-6EE1-4A1A-92E0-5243C11E6D05}"/>
+        <xdr:cNvPr id="52" name="Oval 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B01396B-30F2-42D0-9602-7773DBA07F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -677,14 +746,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3574707" y="1932214"/>
+          <a:off x="3358872" y="9454873"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -723,23 +792,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>662776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>680358</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192641</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>705738</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>637699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Oval 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B01396B-30F2-42D0-9602-7773DBA07F19}"/>
+        <xdr:cNvPr id="54" name="Oval 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75934744-1A65-4D37-956C-5088E8BBAC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -747,14 +816,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3578679" y="8722179"/>
+          <a:off x="5951603" y="2407674"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -794,22 +863,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>149677</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:colOff>175011</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>662774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>707571</xdr:rowOff>
+      <xdr:colOff>688108</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>693964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Oval 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75934744-1A65-4D37-956C-5088E8BBAC60}"/>
+        <xdr:cNvPr id="55" name="Oval 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE908C14-3084-431C-AFD1-542F79561882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5293177" y="1891392"/>
+          <a:off x="5069396" y="2463939"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -863,23 +932,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145704</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>679673</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>672108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Oval 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE908C14-3084-431C-AFD1-542F79561882}"/>
+        <xdr:cNvPr id="57" name="Oval 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380B5013-095A-4CEB-AF09-BD565FC7E8AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,14 +956,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6146454" y="1020536"/>
+          <a:off x="6790114" y="9358698"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -933,23 +1002,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>132097</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>645194</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>653144</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>178254</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>691351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>698047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Oval 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380B5013-095A-4CEB-AF09-BD565FC7E8AE}"/>
+        <xdr:cNvPr id="58" name="Oval 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CEAFD1-C160-4C88-972B-D41FDC77B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,14 +1026,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6132847" y="8694965"/>
+          <a:off x="7607754" y="1596118"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1003,23 +1072,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>662776</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>707572</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181389</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>694486</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>710236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Oval 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CEAFD1-C160-4C88-972B-D41FDC77B978}"/>
+        <xdr:cNvPr id="59" name="Oval 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A308FF0-8983-4A30-B039-8A5D6F28E0BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7007679" y="1034143"/>
+          <a:off x="8534081" y="1615634"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1074,22 +1143,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>132098</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>645195</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>707572</xdr:rowOff>
+      <xdr:colOff>676381</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>740020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Oval 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A308FF0-8983-4A30-B039-8A5D6F28E0BF}"/>
+        <xdr:cNvPr id="60" name="Oval 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D756EBC-D167-4435-B366-474B63C7E59B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,14 +1166,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7847348" y="1034143"/>
+          <a:off x="7651399" y="9426610"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1143,23 +1212,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>649169</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156173</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669270</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>709666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Oval 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D756EBC-D167-4435-B366-474B63C7E59B}"/>
+        <xdr:cNvPr id="61" name="Oval 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC82A79-F113-4842-BDF1-1916FA380756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6994072" y="8708572"/>
+          <a:off x="8508865" y="9396256"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1213,23 +1282,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>118491</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631588</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>666751</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159312</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>672409</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>693965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Oval 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC82A79-F113-4842-BDF1-1916FA380756}"/>
+        <xdr:cNvPr id="63" name="Oval 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E25554-4F6F-4766-8FD3-EB9B09CA677A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,14 +1306,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7833741" y="8708572"/>
+          <a:off x="9589062" y="1020536"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1283,23 +1352,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>689990</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196247</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>709344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>679266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Oval 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689C0EBA-2805-4A00-9A49-9316E92E06FE}"/>
+        <xdr:cNvPr id="64" name="Oval 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7155DE6-C779-4906-BB19-4D38CC8D770E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,14 +1376,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8749393" y="1020536"/>
+          <a:off x="9426838" y="9379178"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1353,23 +1422,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>159312</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>672409</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205082</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>718179</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>678931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Oval 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E25554-4F6F-4766-8FD3-EB9B09CA677A}"/>
+        <xdr:cNvPr id="65" name="Oval 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C544FE79-08B5-41B4-A68B-70EFA3F21015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,14 +1446,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9589062" y="1020536"/>
+          <a:off x="10286928" y="9365521"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1423,23 +1492,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676383</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>653144</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166806</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>679903</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>654000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Oval 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7155DE6-C779-4906-BB19-4D38CC8D770E}"/>
+        <xdr:cNvPr id="70" name="Oval 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F96636-7620-4C1B-A6D3-9B2EF788B8AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8735786" y="8694965"/>
+          <a:off x="738306" y="9340590"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1493,23 +1562,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145705</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>658802</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>653144</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>670317</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>737927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Oval 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C544FE79-08B5-41B4-A68B-70EFA3F21015}"/>
+        <xdr:cNvPr id="71" name="Oval 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8166ED2-B5E3-4046-9FA5-70F0030610F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1586,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9575455" y="8694965"/>
+          <a:off x="1593297" y="9424517"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1563,23 +1632,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>717204</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174597</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>214155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>687694</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>744834</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Oval 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F96636-7620-4C1B-A6D3-9B2EF788B8AD}"/>
+        <xdr:cNvPr id="72" name="Oval 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2368111-B37F-43F2-BEAF-212AAF8B6812}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,14 +1656,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="204107" y="8735786"/>
+          <a:off x="6798135" y="1650232"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1633,23 +1702,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>186526</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>699623</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666234</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>674741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Oval 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8166ED2-B5E3-4046-9FA5-70F0030610F0}"/>
+        <xdr:cNvPr id="76" name="Oval 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0674F8-8E06-4048-9673-724B44CFB394}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,8 +1726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1043776" y="8735786"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="4182945" y="9351806"/>
+          <a:ext cx="513097" cy="540204"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1703,23 +1772,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134820</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647917</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>683079</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>721910</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>655620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Oval 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2368111-B37F-43F2-BEAF-212AAF8B6812}"/>
+        <xdr:cNvPr id="77" name="Oval 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20E0700-FB3F-45BE-91F9-2DBA45D96C89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,14 +1796,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4421070" y="1866900"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="5099010" y="8477633"/>
+          <a:ext cx="517285" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -1773,365 +1842,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>166005</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>193221</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>679102</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Oval 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCC2AF0-3EFE-43E9-A68F-C2EEA3F7A0D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6166755" y="1907721"/>
-          <a:ext cx="513097" cy="530679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676383</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>707572</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Oval 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63AAD6E-3A88-4392-B513-F228E366DEEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3592286" y="7892143"/>
-          <a:ext cx="513097" cy="530679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145705</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>658802</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>707572</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Oval 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0674F8-8E06-4048-9673-724B44CFB394}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4431955" y="7892143"/>
-          <a:ext cx="513097" cy="530679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>703597</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>721179</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Oval 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20E0700-FB3F-45BE-91F9-2DBA45D96C89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="7905750"/>
-          <a:ext cx="513097" cy="530679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>172919</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>686016</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>721179</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Oval 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D720C4-E233-4048-B9E4-DB4B9C41B3DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6173669" y="7905750"/>
-          <a:ext cx="513097" cy="530679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>693963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2197,16 +1916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>721178</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145968</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>649432</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>686541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2221,7 +1940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9593036" y="190500"/>
+          <a:off x="10242468" y="727363"/>
           <a:ext cx="503464" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2271,16 +1990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>721178</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>666749</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686542</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2295,7 +2014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9647464" y="9565821"/>
+          <a:off x="10279578" y="10232572"/>
           <a:ext cx="503464" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2353,16 +2072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>653142</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>649715</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>712518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2377,7 +2096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="136071" y="9552214"/>
+          <a:off x="717751" y="10263686"/>
           <a:ext cx="503464" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2424,6 +2143,1971 @@
             <a:t>R</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81032</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>753385</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>676931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Isosceles Triangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A2D8E5-F6E8-45F9-8FD4-959E91FD8609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6704570" y="10142453"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>709664</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>677095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Isosceles Triangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0053C625-A2C3-45F8-908D-3534D75322BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4062933" y="10142617"/>
+          <a:ext cx="676539" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>97283</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>773822</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>764711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Isosceles Triangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AEBE15-436A-461B-B42F-50EC03D22CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6720821" y="719887"/>
+          <a:ext cx="676539" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144814</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>817167</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>731830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Isosceles Triangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7064C421-562E-4188-8622-9D8453006AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4174622" y="687006"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68096</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>718037</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>729244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Cross 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40F269B-12DA-44EF-8851-6AF78D2C7661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5827058" y="10127531"/>
+          <a:ext cx="649941" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 26724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118953</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>768894</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>799067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Cross 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4553953-F21E-4ECC-936D-80C58A974061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5877915" y="687008"/>
+          <a:ext cx="649941" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 26724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>112521</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695227</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>758737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Chord 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C74E901-4C22-415A-9233-2C4A5DC1A2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3277752" y="10235466"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75687"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143015</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>725721</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>722266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Chord 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9286CF6-8925-4F41-9ADF-7540CB4441CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631130" y="10198995"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140348</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>741470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Chord 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBC4176-B660-4BE9-BBB3-BE84D44FDA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7628463" y="707853"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183265</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>765971</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>723890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Chord 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C851BF-7EF0-45F5-9986-4B8C00A0FD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348496" y="690273"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19827</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>199981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>725796</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>816305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Heart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0714FDB-F105-4787-9450-181110A90C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914212" y="771481"/>
+          <a:ext cx="705969" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1"/>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73112</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>779081</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>762002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Heart 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D329889-008A-40B6-B225-532D9615DD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4967497" y="10227524"/>
+          <a:ext cx="705969" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186191</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>699288</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>702214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Trapezoid 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC4BA9-F859-43C8-8902-B03357C8CF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080576" y="9388804"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187208</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>700305</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>702997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Trapezoid 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C2089C-F0B6-4C22-9A6B-73AE922FC5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5946170" y="9389587"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>684633</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>712472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Trapezoid 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6427E647-0D8F-4862-99F3-1A925AB8A5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5930498" y="1617870"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>169769</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>682866</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>671054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Trapezoid 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EE0770-9335-4472-9343-E9F0E60D0C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5064154" y="1576452"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>565384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>705792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Oval 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ED37EF-ABBC-4120-862A-9617FFE7B30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9269556" y="1611190"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123337</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>777874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242630DC-FA54-40ED-9C77-F8998FF8130B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9340606" y="10177095"/>
+          <a:ext cx="699513" cy="682625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87494</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787007</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>809758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BBC34B-B464-4026-8A0F-93C4C67F55E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1523571" y="10208979"/>
+          <a:ext cx="699513" cy="682625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808194</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>792531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32D541E-9C38-41A3-B1F2-0462C53A73D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9325950" y="681406"/>
+          <a:ext cx="699513" cy="682625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793533</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>821841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C906F2A9-D820-474F-8FFB-43EFBA2B4CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1530097" y="710716"/>
+          <a:ext cx="699513" cy="682625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>131885</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>804238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>792170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Flowchart: Merge 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7781978C-71BE-45B5-8A71-1AD1C6F5CA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8484577" y="747346"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>745623</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>792170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Flowchart: Merge 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77C8656-C76D-4D57-9C2C-4687284D563F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2373924" y="747346"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>789584</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>777517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Flowchart: Merge 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFACDB74-8427-4B71-893B-4A7E00508884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2417885" y="10243039"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>745622</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>733555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Flowchart: Merge 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847B43F3-9B0F-4701-9DF8-89E3F9EC43FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8425961" y="10199077"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2733,104 +4417,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D27E80-28FA-45B9-8B42-2509C9C36B11}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
+    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>12</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>11</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>10</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="9">
+        <v>9</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7"/>
+      <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -2842,76 +4552,156 @@
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
+    <row r="8" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kerd.xlsx
+++ b/Kerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\OneDrive\Belgeler\GitHub\Kerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBCA87-6260-4D45-9787-E46ADE9F4E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10058E55-59A3-4180-8644-B83D554F1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="2415" windowWidth="9045" windowHeight="11160" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
+    <workbookView xWindow="24195" yWindow="4410" windowWidth="9045" windowHeight="11160" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Piece Setup" sheetId="1" r:id="rId1"/>
@@ -445,13 +445,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>180150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>199824</xdr:rowOff>
+      <xdr:rowOff>159003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693247</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>730503</xdr:rowOff>
+      <xdr:rowOff>689682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -466,7 +466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345381" y="1635901"/>
+          <a:off x="3323400" y="1587753"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -512,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>193639</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152818</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>181082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>706737</xdr:colOff>
+      <xdr:rowOff>208297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>665916</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>711761</xdr:rowOff>
+      <xdr:rowOff>738976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -536,7 +536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5952601" y="8533774"/>
+          <a:off x="5010568" y="8495047"/>
           <a:ext cx="513098" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -792,16 +792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>192641</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165427</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>107020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>705738</xdr:colOff>
+      <xdr:rowOff>175053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678524</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>637699</xdr:rowOff>
+      <xdr:rowOff>705732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -816,7 +816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5951603" y="2407674"/>
+          <a:off x="5023177" y="2461053"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -862,16 +862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175011</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175010</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>688108</xdr:colOff>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>688107</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>693964</xdr:rowOff>
+      <xdr:rowOff>721177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -886,7 +886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069396" y="2463939"/>
+          <a:off x="5890010" y="2476498"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -933,15 +933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>166576</xdr:colOff>
+      <xdr:colOff>181230</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>141429</xdr:rowOff>
+      <xdr:rowOff>126775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>679673</xdr:colOff>
+      <xdr:colOff>694327</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>672108</xdr:rowOff>
+      <xdr:rowOff>657454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -956,7 +956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6790114" y="9358698"/>
+          <a:off x="6804768" y="9344044"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1003,15 +1003,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>178254</xdr:colOff>
+      <xdr:colOff>131152</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>167368</xdr:rowOff>
+      <xdr:rowOff>216563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>691351</xdr:colOff>
+      <xdr:colOff>644249</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>698047</xdr:rowOff>
+      <xdr:rowOff>747242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1026,7 +1026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7607754" y="1596118"/>
+          <a:off x="7560652" y="1645313"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1145,13 +1145,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>163284</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>209341</xdr:rowOff>
+      <xdr:rowOff>150725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676381</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>740020</xdr:rowOff>
+      <xdr:rowOff>681404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1166,7 +1166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7651399" y="9426610"/>
+          <a:off x="7651399" y="9367994"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1213,15 +1213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>156173</xdr:colOff>
+      <xdr:colOff>170827</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>178987</xdr:rowOff>
+      <xdr:rowOff>193640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>669270</xdr:colOff>
+      <xdr:colOff>683924</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>709666</xdr:rowOff>
+      <xdr:rowOff>724319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1236,7 +1236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8508865" y="9396256"/>
+          <a:off x="8523519" y="9410909"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1656,7 +1656,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6798135" y="1650232"/>
+          <a:off x="6746847" y="1642905"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1772,16 +1772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150196</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>124941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>721910</xdr:colOff>
+      <xdr:rowOff>192976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>667481</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>655620</xdr:rowOff>
+      <xdr:rowOff>723655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1796,7 +1796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5099010" y="8477633"/>
+          <a:off x="5865196" y="8479726"/>
           <a:ext cx="517285" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1906,7 +1906,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="tr-TR" sz="3600" b="1"/>
-            <a:t>R</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
         </a:p>
@@ -1980,7 +1980,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="tr-TR" sz="3600" b="1"/>
-            <a:t>R</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
         </a:p>
@@ -1993,13 +1993,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>183078</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>686542</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:rowOff>680357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2014,7 +2014,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10279578" y="10232572"/>
+          <a:off x="10184328" y="10150929"/>
           <a:ext cx="503464" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2058,7 +2058,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>R</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="3600" b="1">
             <a:solidFill>
@@ -2140,7 +2140,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>R</a:t>
+            <a:t>T</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="3600" b="1">
             <a:solidFill>
@@ -2238,15 +2238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33125</xdr:colOff>
+      <xdr:colOff>60339</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>60771</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>709664</xdr:colOff>
+      <xdr:colOff>736878</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>677095</xdr:rowOff>
+      <xdr:rowOff>731524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2261,7 +2261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4062933" y="10142617"/>
+          <a:off x="4060839" y="10116450"/>
           <a:ext cx="676539" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2321,15 +2321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>97283</xdr:colOff>
+      <xdr:colOff>110890</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148387</xdr:rowOff>
+      <xdr:rowOff>121173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>773822</xdr:colOff>
+      <xdr:colOff>787429</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>764711</xdr:rowOff>
+      <xdr:rowOff>737497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2344,7 +2344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6720821" y="719887"/>
+          <a:off x="6683140" y="692673"/>
           <a:ext cx="676539" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2404,15 +2404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>144814</xdr:colOff>
+      <xdr:colOff>76778</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>115506</xdr:rowOff>
+      <xdr:rowOff>88292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>817167</xdr:colOff>
+      <xdr:colOff>749131</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>731830</xdr:rowOff>
+      <xdr:rowOff>704616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2427,7 +2427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4174622" y="687006"/>
+          <a:off x="4077278" y="659792"/>
           <a:ext cx="672353" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2657,15 +2657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>112521</xdr:colOff>
+      <xdr:colOff>139735</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153620</xdr:rowOff>
+      <xdr:rowOff>153621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695227</xdr:colOff>
+      <xdr:colOff>722441</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>758737</xdr:rowOff>
+      <xdr:rowOff>758738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2680,7 +2680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3277752" y="10235466"/>
+          <a:off x="3282985" y="10154871"/>
           <a:ext cx="582706" cy="605117"/>
         </a:xfrm>
         <a:prstGeom prst="chord">
@@ -2996,15 +2996,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19827</xdr:colOff>
+      <xdr:colOff>74256</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>199981</xdr:rowOff>
+      <xdr:rowOff>145552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>725796</xdr:colOff>
+      <xdr:colOff>780225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>816305</xdr:rowOff>
+      <xdr:rowOff>761876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3019,7 +3019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914212" y="771481"/>
+          <a:off x="4932006" y="717052"/>
           <a:ext cx="705969" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="heart">
@@ -3257,7 +3257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5946170" y="9389587"/>
+          <a:off x="5902208" y="9316318"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
@@ -3394,15 +3394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>169769</xdr:colOff>
+      <xdr:colOff>183376</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>140375</xdr:rowOff>
+      <xdr:rowOff>181196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>682866</xdr:colOff>
+      <xdr:colOff>696473</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>671054</xdr:rowOff>
+      <xdr:rowOff>711875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3417,7 +3417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5064154" y="1576452"/>
+          <a:off x="5041126" y="1609946"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
@@ -3474,15 +3474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>52287</xdr:colOff>
+      <xdr:colOff>147537</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>175113</xdr:rowOff>
+      <xdr:rowOff>202327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>565384</xdr:colOff>
+      <xdr:colOff>660634</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>705792</xdr:rowOff>
+      <xdr:rowOff>733006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3497,7 +3497,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9269556" y="1611190"/>
+          <a:off x="9291537" y="1631077"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3539,250 +3539,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123337</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>822850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>777874</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242630DC-FA54-40ED-9C77-F8998FF8130B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9340606" y="10177095"/>
-          <a:ext cx="699513" cy="682625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>87494</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>787007</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>809758</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BBC34B-B464-4026-8A0F-93C4C67F55E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1523571" y="10208979"/>
-          <a:ext cx="699513" cy="682625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>108681</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>808194</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>792531</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32D541E-9C38-41A3-B1F2-0462C53A73D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9325950" y="681406"/>
-          <a:ext cx="699513" cy="682625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>94020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139216</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>793533</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>821841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="Al Sana Taş! - Harmoni Kocluk&amp;amp;Akademi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C906F2A9-D820-474F-8FFB-43EFBA2B4CF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1530097" y="710716"/>
-          <a:ext cx="699513" cy="682625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4037,15 +3793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
+      <xdr:colOff>59665</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:rowOff>198876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>745622</xdr:colOff>
+      <xdr:colOff>732018</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>733555</xdr:rowOff>
+      <xdr:rowOff>815200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4060,7 +3816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8425961" y="10199077"/>
+          <a:off x="8346415" y="10200126"/>
           <a:ext cx="672353" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
@@ -4110,6 +3866,354 @@
           <a:endParaRPr lang="en-GB" sz="2800" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113083</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>793440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>751208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Curved Down 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E07036-CB07-438D-85EA-AB72A7225D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9257083" y="10194565"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>789215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>734786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Arrow: Curved Down 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DDCB6F-0DFB-41D1-82D8-EF0585E42F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537608" y="10178143"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>775608</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Arrow: Curved Down 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6607085D-5A51-4171-8885-DDAFB29A673D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239251" y="775607"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>748393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Arrow: Curved Down 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66401BB8-0893-4B06-AC4E-680E2A0719DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1564821" y="762000"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4419,8 +4523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D27E80-28FA-45B9-8B42-2509C9C36B11}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kerd.xlsx
+++ b/Kerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\OneDrive\Belgeler\GitHub\Kerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10058E55-59A3-4180-8644-B83D554F1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02758CFB-9826-44C3-9542-DF7409CCD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24195" yWindow="4410" windowWidth="9045" windowHeight="11160" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Piece Setup" sheetId="1" r:id="rId1"/>
@@ -2487,15 +2487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68096</xdr:colOff>
+      <xdr:colOff>64686</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>45685</xdr:rowOff>
+      <xdr:rowOff>114870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>718037</xdr:colOff>
+      <xdr:colOff>714627</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>729244</xdr:rowOff>
+      <xdr:rowOff>798429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2510,7 +2510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5827058" y="10127531"/>
+          <a:off x="5813304" y="10177752"/>
           <a:ext cx="649941" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="plus">
@@ -4521,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D27E80-28FA-45B9-8B42-2509C9C36B11}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,6 +4807,13 @@
       </c>
       <c r="N14" s="8"/>
     </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Kerd.xlsx
+++ b/Kerd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\OneDrive\Belgeler\GitHub\Kerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02758CFB-9826-44C3-9542-DF7409CCD0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4070963F-8907-4246-BD7A-A9DDC3BE2E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50653107-51A8-4999-A1A6-327513E1B716}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +90,6 @@
       <color theme="0"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -170,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,7 +190,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +198,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7030A0"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFA14A0F"/>
       <color rgb="FF90EB89"/>
       <color rgb="FF1ACC51"/>
@@ -214,7 +208,6 @@
       <color rgb="FFD7A277"/>
       <color rgb="FFF4B184"/>
       <color rgb="FFF3AA79"/>
-      <color rgb="FFF19E65"/>
     </mruColors>
   </colors>
   <extLst>
@@ -233,15 +226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>153653</xdr:colOff>
+      <xdr:colOff>153652</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>668452</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:rowOff>678086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -256,8 +249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="153653" y="1020536"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="725152" y="1600695"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -303,15 +296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156055</xdr:colOff>
+      <xdr:colOff>156054</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>183267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>669152</xdr:colOff>
+      <xdr:colOff>670854</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>713946</xdr:rowOff>
+      <xdr:rowOff>698067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -326,8 +319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1592132" y="1619344"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="1593463" y="1620676"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -373,15 +366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
+      <xdr:colOff>217713</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>730811</xdr:colOff>
+      <xdr:colOff>732513</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>721179</xdr:rowOff>
+      <xdr:rowOff>705300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -396,8 +389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2518368" y="1626577"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="2521031" y="1627909"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -443,15 +436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180150</xdr:colOff>
+      <xdr:colOff>180149</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>159003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>693247</xdr:colOff>
+      <xdr:colOff>694949</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>689682</xdr:rowOff>
+      <xdr:rowOff>673803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -466,8 +459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3323400" y="1587753"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="3349376" y="1596412"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -515,13 +508,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>152818</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>208297</xdr:rowOff>
+      <xdr:rowOff>173661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>665916</xdr:colOff>
+      <xdr:colOff>667618</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>738976</xdr:rowOff>
+      <xdr:rowOff>688461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -536,8 +529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010568" y="8495047"/>
-          <a:ext cx="513098" cy="530679"/>
+          <a:off x="5053863" y="8538343"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -583,15 +576,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>225157</xdr:colOff>
+      <xdr:colOff>155883</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>120371</xdr:rowOff>
+      <xdr:rowOff>189643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>738254</xdr:colOff>
+      <xdr:colOff>670683</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>651050</xdr:rowOff>
+      <xdr:rowOff>704443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -606,8 +599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2525811" y="9337640"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="2441883" y="9333643"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -653,15 +646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>163285</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676383</xdr:colOff>
+      <xdr:colOff>678085</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>721179</xdr:rowOff>
+      <xdr:rowOff>705300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -676,8 +669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4193094" y="1626577"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="4198421" y="1627909"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -723,15 +716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>193641</xdr:colOff>
+      <xdr:colOff>193640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>237604</xdr:rowOff>
+      <xdr:rowOff>185650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>706738</xdr:colOff>
+      <xdr:colOff>708440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>768283</xdr:rowOff>
+      <xdr:rowOff>700450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -746,8 +739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358872" y="9454873"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="3362867" y="9416241"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -793,15 +786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>165427</xdr:colOff>
+      <xdr:colOff>165426</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>175053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>678524</xdr:colOff>
+      <xdr:colOff>680226</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>705732</xdr:rowOff>
+      <xdr:rowOff>689853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -816,8 +809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5023177" y="2461053"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="5023176" y="2461053"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -863,15 +856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175010</xdr:colOff>
+      <xdr:colOff>157691</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:rowOff>173180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>688107</xdr:colOff>
+      <xdr:colOff>672491</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>721177</xdr:rowOff>
+      <xdr:rowOff>687980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -886,8 +879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5890010" y="2476498"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="5872691" y="2459180"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -933,15 +926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>181230</xdr:colOff>
+      <xdr:colOff>163911</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>126775</xdr:rowOff>
+      <xdr:rowOff>178729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>694327</xdr:colOff>
+      <xdr:colOff>678711</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>657454</xdr:rowOff>
+      <xdr:rowOff>693529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -956,8 +949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6804768" y="9344044"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="6796775" y="9409320"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1003,15 +996,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>131152</xdr:colOff>
+      <xdr:colOff>131151</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>216563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>644249</xdr:colOff>
+      <xdr:colOff>645951</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>747242</xdr:rowOff>
+      <xdr:rowOff>731363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1026,8 +1019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7560652" y="1645313"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="7560651" y="1645313"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1073,15 +1066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>181389</xdr:colOff>
+      <xdr:colOff>181388</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>179557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>694486</xdr:colOff>
+      <xdr:colOff>696188</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>710236</xdr:rowOff>
+      <xdr:rowOff>694357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1096,8 +1089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534081" y="1615634"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="8546070" y="1616966"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1143,15 +1136,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
+      <xdr:colOff>136068</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>150725</xdr:rowOff>
+      <xdr:rowOff>154438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676381</xdr:colOff>
+      <xdr:colOff>650868</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>681404</xdr:rowOff>
+      <xdr:rowOff>669238</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1166,8 +1159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7651399" y="9367994"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="7565568" y="9298438"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1213,15 +1206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>170827</xdr:colOff>
+      <xdr:colOff>198039</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>193640</xdr:rowOff>
+      <xdr:rowOff>149108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>683924</xdr:colOff>
+      <xdr:colOff>712839</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>724319</xdr:rowOff>
+      <xdr:rowOff>663908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1236,8 +1229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8523519" y="9410909"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="8484789" y="9293108"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1283,15 +1276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>159312</xdr:colOff>
+      <xdr:colOff>159311</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>672409</xdr:colOff>
+      <xdr:colOff>674111</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>693965</xdr:rowOff>
+      <xdr:rowOff>678086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1306,8 +1299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9589062" y="1020536"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="10255811" y="1600695"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1353,15 +1346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>196247</xdr:colOff>
+      <xdr:colOff>178928</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>148587</xdr:rowOff>
+      <xdr:rowOff>165905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>709344</xdr:colOff>
+      <xdr:colOff>693728</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>679266</xdr:rowOff>
+      <xdr:rowOff>680705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1376,8 +1369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9426838" y="9379178"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="9409519" y="9396496"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1423,15 +1416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>205082</xdr:colOff>
+      <xdr:colOff>187763</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>148252</xdr:rowOff>
+      <xdr:rowOff>165570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>718179</xdr:colOff>
+      <xdr:colOff>702563</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>678931</xdr:rowOff>
+      <xdr:rowOff>680370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1446,8 +1439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10286928" y="9365521"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="10284263" y="9396161"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1493,15 +1486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>166806</xdr:colOff>
+      <xdr:colOff>184123</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123321</xdr:rowOff>
+      <xdr:rowOff>175275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>679903</xdr:colOff>
+      <xdr:colOff>698923</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>654000</xdr:rowOff>
+      <xdr:rowOff>690075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1516,8 +1509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="738306" y="9340590"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="755623" y="9405866"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1563,15 +1556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>157220</xdr:colOff>
+      <xdr:colOff>157219</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207248</xdr:rowOff>
+      <xdr:rowOff>172611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>670317</xdr:colOff>
+      <xdr:colOff>672019</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>737927</xdr:rowOff>
+      <xdr:rowOff>687411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1586,8 +1579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1593297" y="9424517"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="1594628" y="9403202"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1633,15 +1626,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>174597</xdr:colOff>
+      <xdr:colOff>174596</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>214155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>687694</xdr:colOff>
+      <xdr:colOff>689396</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>744834</xdr:rowOff>
+      <xdr:rowOff>728955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1656,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6746847" y="1642905"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="6746846" y="1642905"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1703,15 +1696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>153137</xdr:colOff>
+      <xdr:colOff>153136</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>134537</xdr:rowOff>
+      <xdr:rowOff>186491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666234</xdr:colOff>
+      <xdr:colOff>667936</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>674741</xdr:rowOff>
+      <xdr:rowOff>701291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1726,8 +1719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4182945" y="9351806"/>
-          <a:ext cx="513097" cy="540204"/>
+          <a:off x="4188272" y="9417082"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1773,15 +1766,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>150196</xdr:colOff>
+      <xdr:colOff>167514</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>192976</xdr:rowOff>
+      <xdr:rowOff>175658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>667481</xdr:colOff>
+      <xdr:colOff>682314</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>723655</xdr:rowOff>
+      <xdr:rowOff>690458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1796,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5865196" y="8479726"/>
-          <a:ext cx="517285" cy="530679"/>
+          <a:off x="5882514" y="8462408"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2073,15 +2066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>146251</xdr:colOff>
+      <xdr:colOff>163569</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>181840</xdr:rowOff>
+      <xdr:rowOff>164522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>649715</xdr:colOff>
+      <xdr:colOff>667033</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>712518</xdr:rowOff>
+      <xdr:rowOff>695200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2096,7 +2089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="717751" y="10263686"/>
+          <a:off x="735069" y="10261022"/>
           <a:ext cx="503464" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2155,15 +2148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>81032</xdr:colOff>
+      <xdr:colOff>108246</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>60607</xdr:rowOff>
+      <xdr:rowOff>95243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>753385</xdr:colOff>
+      <xdr:colOff>780599</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>676931</xdr:rowOff>
+      <xdr:rowOff>711567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2178,7 +2171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6704570" y="10142453"/>
+          <a:off x="6680496" y="10096493"/>
           <a:ext cx="672353" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -2487,15 +2480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64686</xdr:colOff>
+      <xdr:colOff>82004</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114870</xdr:rowOff>
+      <xdr:rowOff>97552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>714627</xdr:colOff>
+      <xdr:colOff>731945</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>798429</xdr:rowOff>
+      <xdr:rowOff>781111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2510,7 +2503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5813304" y="10177752"/>
+          <a:off x="5848959" y="10194052"/>
           <a:ext cx="649941" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="plus">
@@ -2659,13 +2652,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>139735</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153621</xdr:rowOff>
+      <xdr:rowOff>136303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>722441</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>758738</xdr:rowOff>
+      <xdr:rowOff>741420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2680,7 +2673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3282985" y="10154871"/>
+          <a:off x="3308962" y="10232803"/>
           <a:ext cx="582706" cy="605117"/>
         </a:xfrm>
         <a:prstGeom prst="chord">
@@ -2766,7 +2759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7631130" y="10198995"/>
+          <a:off x="7641788" y="10213649"/>
           <a:ext cx="582706" cy="605117"/>
         </a:xfrm>
         <a:prstGeom prst="chord">
@@ -2910,13 +2903,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>183265</xdr:colOff>
+      <xdr:colOff>165947</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>118773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>765971</xdr:colOff>
+      <xdr:colOff>748653</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>723890</xdr:rowOff>
     </xdr:to>
@@ -2933,7 +2926,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348496" y="690273"/>
+          <a:off x="3335174" y="690273"/>
           <a:ext cx="582706" cy="605117"/>
         </a:xfrm>
         <a:prstGeom prst="chord">
@@ -3094,7 +3087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4967497" y="10227524"/>
+          <a:off x="4930862" y="10146928"/>
           <a:ext cx="705969" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="heart">
@@ -3177,7 +3170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5080576" y="9388804"/>
+          <a:off x="5087236" y="9402126"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
@@ -3188,7 +3181,10 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3268,7 +3264,10 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3337,7 +3336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5930498" y="1617870"/>
+          <a:off x="5886536" y="1610543"/>
           <a:ext cx="513097" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
@@ -3348,7 +3347,10 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3428,7 +3430,10 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3474,15 +3479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>147537</xdr:colOff>
+      <xdr:colOff>147536</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>202327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>660634</xdr:colOff>
+      <xdr:colOff>662336</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>733006</xdr:rowOff>
+      <xdr:rowOff>717127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3497,8 +3502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9291537" y="1631077"/>
-          <a:ext cx="513097" cy="530679"/>
+          <a:off x="9378127" y="1639736"/>
+          <a:ext cx="514800" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3544,15 +3549,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>131885</xdr:colOff>
+      <xdr:colOff>97249</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:rowOff>141210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>804238</xdr:colOff>
+      <xdr:colOff>769602</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>792170</xdr:rowOff>
+      <xdr:rowOff>757534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3567,7 +3572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8484577" y="747346"/>
+          <a:off x="8461931" y="712710"/>
           <a:ext cx="672353" cy="616324"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
@@ -4052,13 +4057,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:rowOff>186789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>775608</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:rowOff>744682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4073,7 +4078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9239251" y="775607"/>
+          <a:off x="9325842" y="758289"/>
           <a:ext cx="680357" cy="557893"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
@@ -4137,15 +4142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
+      <xdr:colOff>118753</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
+      <xdr:colOff>799110</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>748393</xdr:rowOff>
+      <xdr:rowOff>731075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4160,7 +4165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1564821" y="762000"/>
+          <a:off x="1556162" y="744682"/>
           <a:ext cx="680357" cy="557893"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
@@ -4214,6 +4219,5589 @@
           <a:endParaRPr lang="en-GB" sz="4000" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>851165</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>851297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFF9A85-DEED-4594-8923-B5BE57983B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6584615" y="4012864"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="Rectangle 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7688A5-8550-43EA-94AD-D2DF3BFFD320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>838933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rectangle 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC75926-D05A-4617-812E-B63EF7DCBB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="4000500"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Rectangle 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E015D-5633-42F9-910A-332190040296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>856118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>838933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="Rectangle 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EF2D2E-71D5-4E51-B5B7-692EBD7856EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10113818" y="4035136"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>851297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="Rectangle 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D97E16-7F71-40B2-B1CC-17D0DE39BE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="4012864"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="Rectangle 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294FD8D5-611D-40F7-A210-CCEBBE28788C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435435" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="Rectangle 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E29DE32-957F-465F-A6ED-76BE20AEABC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2292685" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="Rectangle 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C2729E-CA0E-446D-AE03-43D28E7E306A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149935" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="Rectangle 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A3A464-EFAC-42D7-8744-9139A7F67193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4007185" y="4010025"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12365</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>851165</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>851297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="Rectangle 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9A9B3C-F3C2-46D8-963D-0D895CD97EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6584615" y="6584614"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="Rectangle 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB49E5A-073D-4071-9D1C-82A38A69CE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="Rectangle 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A55F580-B7B4-43FD-A3CB-2D0913FC5591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="Rectangle 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B5B51-526E-4705-90DC-F9DB1182011D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="Rectangle 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAF49A6-92CE-46A7-965C-8AFDD8408164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>848325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>851297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="Rectangle 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FE3117-FCB2-4CB5-9022-2E85EDEF7000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="6584614"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="Rectangle 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12ACE2F-CEA6-4BC0-8627-83593164318B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435435" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="Rectangle 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F223FEF-4F38-4948-8F95-AF75B46C97D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2292685" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="Rectangle 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD4B57B-0F76-4092-BD67-0D342A9CD8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149935" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6685</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>845485</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>848458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="Rectangle 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5514AC8-2544-4C75-90F3-54994EC39EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4007185" y="6581775"/>
+          <a:ext cx="838800" cy="838933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent4">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153652</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>668452</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>678086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Oval 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74CF9A8-9604-4B1B-A120-BABE44C48AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="725152" y="1600695"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156054</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>670854</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>698067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Oval 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2519DFE2-B51F-4B69-BD79-8C9229141076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593463" y="1620676"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>732513</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>705300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Oval 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8827DEBB-9B05-467C-B60A-AA6B507BD02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2521031" y="1627909"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>694949</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>673803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Oval 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7C0F05-330A-43B0-B98B-675DC161587B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349376" y="1596412"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>678085</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>705300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Oval 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF38DC83-1AB1-4BEC-B88F-F62D1ABC53A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4198421" y="1627909"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165426</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>680226</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>689853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Oval 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F20EB2-7BD0-4734-8903-CC20A8A8FDD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5066471" y="2478371"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>157691</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>672491</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>687980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Oval 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89FA6DA-834A-4533-8DAC-D67FB3931451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924646" y="2476498"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131151</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>216563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>645951</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>731363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Oval 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91F2D69-DE9D-4328-9CE6-39C1BA150000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629924" y="1653972"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>181388</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>696188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>694357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Oval 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82E486D-4AE2-4892-B3EB-580EE22B03EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8546070" y="1616966"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>159311</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>674111</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>678086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Oval 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B19B0AC-9608-4D9C-B1B2-D18D600B26AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10255811" y="1600695"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>174596</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>214155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>689396</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>728955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Oval 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99D8435-7D18-4743-8026-146F4E96C6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6807460" y="1651564"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>693963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rectangle 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAEE54F-D072-4BCE-A4EA-2D2C167F63AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707572" y="734785"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>145968</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>649432</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>686541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rectangle 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A62C0B-B7EE-498C-8AB3-B0C20DCECAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242468" y="727363"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>787429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>737497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Isosceles Triangle 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1434085-9FBB-454A-AA2B-0E360D00EF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743754" y="692673"/>
+          <a:ext cx="676539" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76778</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>749131</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>704616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Isosceles Triangle 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76ABC404-AA62-4E54-AFD1-814082FB7C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4111914" y="659792"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>118953</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>768894</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>799067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Cross 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815BAD80-78A7-40FD-B22A-BF7ED9BA12AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5885908" y="687008"/>
+          <a:ext cx="649941" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 26724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>140348</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>723054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>741470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Chord 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F2CEDC-24E6-4111-A5B5-DC1623FA100C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639121" y="707853"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165947</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>748653</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>723890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Chord 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C47931-9D65-4C9B-838C-744C99F287FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3335174" y="690273"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74256</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>780225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>761876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Heart 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FAAA5C-51E1-4C7E-8A1E-B0244323D55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4975301" y="717052"/>
+          <a:ext cx="705969" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1"/>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>684633</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>712472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Trapezoid 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F0A0FD-A0E7-4088-841E-D3C5332C4A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5938491" y="1619202"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>183376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>696473</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>711875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Trapezoid 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC54DB3-FB07-4223-8BF9-6FE296205597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5084421" y="1618605"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>147536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>202327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>662336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>717127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Oval 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E9682D-E1A8-426B-AB90-B0BA19141424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9378127" y="1639736"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>97249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>769602</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>757534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Flowchart: Merge 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB67B53-12B3-4BC8-850A-81FABF13F0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8461931" y="712710"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>745623</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>792170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Flowchart: Merge 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9258823-E7C4-4190-ABC7-D0E8AE7CEC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2376588" y="747346"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>775608</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>744682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Arrow: Curved Down 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA6924E-A1A2-4C1D-ACC2-BCC8ACF83F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9325842" y="758289"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118753</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>799110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>731075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Arrow: Curved Down 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A2C28E-5979-4E80-AD60-EA6D55744978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1556162" y="744682"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152818</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>173661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>667618</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>688461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Oval 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49EA93D-71C0-4E0E-8E8F-5E77F3FA6F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5053863" y="8538343"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>155883</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>670683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>704443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Oval 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8141A4-1471-4B90-9266-36C9186D9A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2459201" y="9420234"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>193640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>708440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>700450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Oval 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6909CBCB-F56A-4061-AE5D-0729AA67CDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362867" y="9416241"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>163911</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>678711</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>693529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Oval 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B50FCF-5AEA-4D21-9BC0-D56820D15B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6796775" y="9409320"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136068</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>650868</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>669238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Oval 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE8676-594C-4EE2-B934-2E1A29694401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7634841" y="9385029"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>198039</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>712839</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>663908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Oval 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF5816F-F3E6-40F7-985B-59FF6BA1D008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562721" y="9379699"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>178928</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>693728</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>680705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Oval 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFEF098-7B09-4AAC-93B4-06A19A640302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9409519" y="9396496"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>187763</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>702563</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>680370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Oval 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22EBFC5-2521-4BE7-AB72-F62D2EA33E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10284263" y="9396161"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698923</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>690075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Oval 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E03CAC0-99CB-4937-8E94-0C4832B1C917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755623" y="9405866"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>672019</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>687411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Oval 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6D9C49-2200-43A0-9C85-048F0D259ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1594628" y="9403202"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>153136</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>667936</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>701291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Oval 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A36130-03E1-48AD-BD70-B7EF67F812CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4188272" y="9417082"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167514</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>682314</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>690458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Oval 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD35118A-BD2A-487C-8855-E18CFAA1B798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934469" y="8540340"/>
+          <a:ext cx="514800" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>183078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>686542</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>680357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rectangle 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264396B3-F794-4DD8-AC11-48087270B845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10279578" y="10246179"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163569</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>667033</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>695200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rectangle 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3847D7A3-0B05-4450-85A5-2D5DAC8FD98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="735069" y="10261022"/>
+          <a:ext cx="503464" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>108246</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>780599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>711567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Isosceles Triangle 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96542BB1-90E3-4095-A87C-DCBF59CCDA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6741110" y="10191743"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60339</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>736878</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>731524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Isosceles Triangle 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868F7601-1E01-40F1-8701-BDF86FC1CB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095475" y="10211700"/>
+          <a:ext cx="676539" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82004</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>731945</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>781111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Cross 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D459CC-BDE7-47F7-B3E9-C05615C89207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848959" y="10194052"/>
+          <a:ext cx="649941" cy="683559"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 26724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="3600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139735</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>722441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>741420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Chord 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F24A09-19D4-477F-9C20-7E1BCBF3146A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3308962" y="10232803"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75687"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>143015</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>725721</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>722266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Chord 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38893B15-126C-42DD-8AB2-9E915A3D8790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7641788" y="10213649"/>
+          <a:ext cx="582706" cy="605117"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86445"/>
+            <a:gd name="adj2" fmla="val 15337109"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>73112</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>779081</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>762002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Heart 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6112A4-6B00-4C6D-AA57-12CCDE90BAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974157" y="10242178"/>
+          <a:ext cx="705969" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>186191</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>699288</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>702214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Trapezoid 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745DB0D8-B086-4FB8-8D3E-70A7720C9822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5087236" y="9402126"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>187208</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>700305</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>702997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Trapezoid 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F798BA5-F6EC-4011-B76D-B326121D9170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5954163" y="9402909"/>
+          <a:ext cx="513097" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>789584</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>777517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Flowchart: Merge 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA16B93-937D-4772-A105-4834727B0243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420549" y="10257693"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59665</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>732018</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>815200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Flowchart: Merge 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4720BAF7-0A01-461C-9189-C44112A2D400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8424347" y="10295376"/>
+          <a:ext cx="672353" cy="616324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113083</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>793440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>751208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Arrow: Curved Down 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61587B8A-A8D8-4547-B04B-B782DAB48478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9343674" y="10289815"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>789215</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>734786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Arrow: Curved Down 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEF959C-4383-47B5-9DC6-6B565BE967CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546267" y="10273393"/>
+          <a:ext cx="680357" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39891"/>
+            <a:gd name="adj2" fmla="val 54659"/>
+            <a:gd name="adj3" fmla="val 26723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="4000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>J</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4521,10 +10109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D27E80-28FA-45B9-8B42-2509C9C36B11}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,9 +10120,12 @@
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="28" width="12.85546875" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4549,8 +10140,22 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>12</v>
       </c>
@@ -4567,8 +10172,24 @@
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="7"/>
+      <c r="P2" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>11</v>
       </c>
@@ -4585,8 +10206,24 @@
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
       <c r="N3" s="7"/>
+      <c r="P3" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>10</v>
       </c>
@@ -4603,8 +10240,24 @@
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="7"/>
+      <c r="P4" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>9</v>
       </c>
@@ -4621,9 +10274,24 @@
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="7"/>
-      <c r="T5" s="10"/>
+      <c r="P5" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>8</v>
       </c>
@@ -4640,8 +10308,24 @@
       <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="7"/>
+      <c r="P6" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -4658,8 +10342,24 @@
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7"/>
+      <c r="P7" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -4676,8 +10376,24 @@
       <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="7"/>
+      <c r="P8" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -4694,8 +10410,24 @@
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="7"/>
+      <c r="P9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4712,8 +10444,24 @@
       <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="7"/>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -4730,8 +10478,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="7"/>
+      <c r="P11" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -4748,8 +10512,24 @@
       <c r="L12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="7"/>
+      <c r="P12" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="7"/>
     </row>
-    <row r="13" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -4766,8 +10546,24 @@
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="7"/>
+      <c r="P13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="7"/>
     </row>
-    <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>0</v>
@@ -4806,8 +10602,46 @@
         <v>11</v>
       </c>
       <c r="N14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
